--- a/11/1/1/Ventas de supermercado 1991 a 2021 - Trimestral.xlsx
+++ b/11/1/1/Ventas de supermercado 1991 a 2021 - Trimestral.xlsx
@@ -2243,10 +2243,10 @@
         <v>126</v>
       </c>
       <c r="B123">
-        <v>126.34</v>
+        <v>126.35</v>
       </c>
       <c r="C123">
-        <v>158.48</v>
+        <v>158.49</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/1/Ventas de supermercado 1991 a 2021 - Trimestral.xlsx
+++ b/11/1/1/Ventas de supermercado 1991 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Serie</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2249,6 +2252,17 @@
         <v>158.49</v>
       </c>
     </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124">
+        <v>130.7</v>
+      </c>
+      <c r="C124">
+        <v>168.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
